--- a/ORCiD API App/selected_titles.xlsx
+++ b/ORCiD API App/selected_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,78 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Towards a responsible innovation agenda for HCI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Samantha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SpaceBot: Towards participatory evaluation of smart buildings</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['Samantha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Augmenting Audits</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['Samantha']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Analysis of lysosomal enzyme activities in  induced pluripotent stem cell, neural progenitor  cell, and neuron models as potential biomarkers  of Huntington’s Disease</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Callum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Assessing the role of complement domain containing peptides in the developing fly brain</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['Callum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Analysis of lysosomal enzyme activities in  induced pluripotent stem cell, neural progenitor  cell, and neuron models as potential biomarkers  of Huntington’s Disease</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Markus']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ORCiD API App/selected_titles.xlsx
+++ b/ORCiD API App/selected_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,18 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Analysis of lysosomal enzyme activities in  induced pluripotent stem cell, neural progenitor  cell, and neuron models as potential biomarkers  of Huntington’s Disease</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Jimbo']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ORCiD API App/selected_titles.xlsx
+++ b/ORCiD API App/selected_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,42 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Analysis of lysosomal enzyme activities in  induced pluripotent stem cell, neural progenitor  cell, and neuron models as potential biomarkers  of Huntington’s Disease</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['bob']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Assessing the role of complement domain containing peptides in the developing fly brain</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['bob']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Analysis of lysosomal enzyme activities in  induced pluripotent stem cell, neural progenitor  cell, and neuron models as potential biomarkers  of Huntington’s Disease</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['student']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
